--- a/Project_Management/Sprint5/Burndown chart .xlsx
+++ b/Project_Management/Sprint5/Burndown chart .xlsx
@@ -890,10 +890,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.414286"/>
+          <c:x val="0.413855"/>
           <c:y val="0"/>
-          <c:w val="0.171429"/>
-          <c:h val="0.0698047"/>
+          <c:w val="0.17229"/>
+          <c:h val="0.0706884"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -909,10 +909,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0458188"/>
-          <c:y val="0.0698047"/>
-          <c:w val="0.949181"/>
-          <c:h val="0.834207"/>
+          <c:x val="0.0460491"/>
+          <c:y val="0.0706884"/>
+          <c:w val="0.948951"/>
+          <c:h val="0.832267"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1041,13 +1041,13 @@
                   <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,7 +1306,7 @@
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.000000</c:v>
@@ -1457,10 +1457,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.307841"/>
-          <c:y val="0.9612"/>
-          <c:w val="0.39956"/>
-          <c:h val="0.0388"/>
+          <c:x val="0.299499"/>
+          <c:y val="0.960867"/>
+          <c:w val="0.421347"/>
+          <c:h val="0.0391329"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1511,15 +1511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>181059</xdr:colOff>
+      <xdr:colOff>181058</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>153440</xdr:rowOff>
+      <xdr:rowOff>153439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>475631</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>31838</xdr:rowOff>
+      <xdr:colOff>427229</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>149512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1527,8 +1527,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="854159" y="3532910"/>
-        <a:ext cx="9679873" cy="4352609"/>
+        <a:off x="854158" y="3532909"/>
+        <a:ext cx="9631472" cy="4298199"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2755,7 +2755,9 @@
       <c r="H6" t="s" s="26">
         <v>14</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -2791,7 +2793,9 @@
       <c r="H7" t="s" s="35">
         <v>14</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="34">
+        <v>1</v>
+      </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
@@ -2825,7 +2829,9 @@
       <c r="H8" t="s" s="35">
         <v>14</v>
       </c>
-      <c r="I8" s="36"/>
+      <c r="I8" s="34">
+        <v>1</v>
+      </c>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
@@ -2989,7 +2995,7 @@
       </c>
       <c r="I14" s="52">
         <f>SUM(I6:I13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="52">
         <f>SUM(J6:J13)</f>
@@ -3037,15 +3043,15 @@
       </c>
       <c r="I15" s="59">
         <f>H15-SUM(I6:I13)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="59">
         <f>I15-SUM(J6:J13)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="59">
         <f>J15-SUM(K6:K13)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>

--- a/Project_Management/Sprint5/Burndown chart .xlsx
+++ b/Project_Management/Sprint5/Burndown chart .xlsx
@@ -890,10 +890,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.413855"/>
+          <c:x val="0.413422"/>
           <c:y val="0"/>
-          <c:w val="0.17229"/>
-          <c:h val="0.0706884"/>
+          <c:w val="0.173156"/>
+          <c:h val="0.0715832"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -909,10 +909,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0460491"/>
-          <c:y val="0.0706884"/>
-          <c:w val="0.948951"/>
-          <c:h val="0.832267"/>
+          <c:x val="0.0462805"/>
+          <c:y val="0.0715832"/>
+          <c:w val="0.94872"/>
+          <c:h val="0.830302"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1044,10 +1044,10 @@
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000000</c:v>
+                  <c:v>-3.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000000</c:v>
+                  <c:v>-3.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,7 +1309,7 @@
                   <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.000000</c:v>
@@ -1457,10 +1457,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.299499"/>
-          <c:y val="0.960867"/>
-          <c:w val="0.421347"/>
-          <c:h val="0.0391329"/>
+          <c:x val="0.291065"/>
+          <c:y val="0.96053"/>
+          <c:w val="0.443343"/>
+          <c:h val="0.0394701"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1517,9 +1517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>427229</xdr:colOff>
+      <xdr:colOff>379073</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>149512</xdr:rowOff>
+      <xdr:rowOff>95780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1528,7 +1528,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="854158" y="3532909"/>
-        <a:ext cx="9631472" cy="4298199"/>
+        <a:ext cx="9583316" cy="4244467"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2758,7 +2758,9 @@
       <c r="I6" s="27">
         <v>1</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="27">
+        <v>1</v>
+      </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -2796,7 +2798,9 @@
       <c r="I7" s="34">
         <v>1</v>
       </c>
-      <c r="J7" s="36"/>
+      <c r="J7" s="34">
+        <v>1</v>
+      </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
@@ -2832,7 +2836,9 @@
       <c r="I8" s="34">
         <v>1</v>
       </c>
-      <c r="J8" s="36"/>
+      <c r="J8" s="34">
+        <v>1</v>
+      </c>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
@@ -2999,7 +3005,7 @@
       </c>
       <c r="J14" s="52">
         <f>SUM(J6:J13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="52">
         <f>SUM(K6:K13)</f>
@@ -3047,11 +3053,11 @@
       </c>
       <c r="J15" s="59">
         <f>I15-SUM(J6:J13)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="K15" s="59">
         <f>J15-SUM(K6:K13)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>

--- a/Project_Management/Sprint5/Burndown chart .xlsx
+++ b/Project_Management/Sprint5/Burndown chart .xlsx
@@ -890,10 +890,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.413422"/>
+          <c:x val="0.412987"/>
           <c:y val="0"/>
-          <c:w val="0.173156"/>
-          <c:h val="0.0715832"/>
+          <c:w val="0.174026"/>
+          <c:h val="0.0724894"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -909,10 +909,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0462805"/>
-          <c:y val="0.0715832"/>
-          <c:w val="0.94872"/>
-          <c:h val="0.830302"/>
+          <c:x val="0.046513"/>
+          <c:y val="0.0724894"/>
+          <c:w val="0.948487"/>
+          <c:h val="0.828312"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1047,7 +1047,7 @@
                   <c:v>-3.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.000000</c:v>
+                  <c:v>-5.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,7 +1312,7 @@
                   <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,10 +1457,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.291065"/>
-          <c:y val="0.96053"/>
-          <c:w val="0.443343"/>
-          <c:h val="0.0394701"/>
+          <c:x val="0.282538"/>
+          <c:y val="0.960188"/>
+          <c:w val="0.465549"/>
+          <c:h val="0.0398115"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1517,9 +1517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>379073</xdr:colOff>
+      <xdr:colOff>331161</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>95780</xdr:rowOff>
+      <xdr:rowOff>42721</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1528,7 +1528,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="854158" y="3532909"/>
-        <a:ext cx="9583316" cy="4244467"/>
+        <a:ext cx="9535404" cy="4191408"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2761,7 +2761,9 @@
       <c r="J6" s="27">
         <v>1</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="27">
+        <v>1</v>
+      </c>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -2801,7 +2803,9 @@
       <c r="J7" s="34">
         <v>1</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" t="s" s="35">
+        <v>14</v>
+      </c>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
@@ -2839,7 +2843,9 @@
       <c r="J8" s="34">
         <v>1</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" t="s" s="35">
+        <v>14</v>
+      </c>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
@@ -2867,7 +2873,9 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="K9" s="34">
+        <v>1</v>
+      </c>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
@@ -3009,7 +3017,7 @@
       </c>
       <c r="K14" s="52">
         <f>SUM(K6:K13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="53"/>
       <c r="M14" s="53"/>
@@ -3057,7 +3065,7 @@
       </c>
       <c r="K15" s="59">
         <f>J15-SUM(K6:K13)</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>

--- a/Project_Management/Sprint5/Burndown chart .xlsx
+++ b/Project_Management/Sprint5/Burndown chart .xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\Sprint5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65605ED-33DD-4BF6-A383-20D58C8DE9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Burndown Chart" sheetId="1" r:id="rId4"/>
+    <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -75,29 +97,21 @@
   <si>
     <t>Ideal Burndown</t>
   </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/mmm/yy"/>
-    <numFmt numFmtId="60" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/mmm/yy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -107,29 +121,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="19"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="19"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="19"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -594,232 +588,202 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="9" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,36 +793,89 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff548135"/>
-      <rgbColor rgb="fff7caac"/>
-      <rgbColor rgb="fff2f2f2"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="fffff2cb"/>
-      <rgbColor rgb="ffb4c6e7"/>
-      <rgbColor rgb="ffc5deb5"/>
-      <rgbColor rgb="ffd9d9d9"/>
-      <rgbColor rgb="ff595959"/>
-      <rgbColor rgb="ff00b050"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF548135"/>
+      <rgbColor rgb="FFF7CAAC"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFFFF2CB"/>
+      <rgbColor rgb="FFB4C6E7"/>
+      <rgbColor rgb="FFC5DEB5"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -867,7 +884,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -875,7 +892,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -890,10 +907,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.412987"/>
+          <c:x val="0.41298699999999999"/>
           <c:y val="0"/>
-          <c:w val="0.174026"/>
-          <c:h val="0.0724894"/>
+          <c:w val="0.17402599999999999"/>
+          <c:h val="7.2489399999999996E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -902,17 +919,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.046513"/>
-          <c:y val="0.0724894"/>
-          <c:w val="0.948487"/>
-          <c:h val="0.828312"/>
+          <c:x val="4.6512999999999999E-2"/>
+          <c:y val="7.2489399999999996E-2"/>
+          <c:w val="0.94848699999999997"/>
+          <c:h val="0.82831200000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -939,36 +956,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Burndown Chart'!$D$5:$S$5</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -992,30 +984,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1024,34 +992,40 @@
             <c:numRef>
               <c:f>'Burndown Chart'!$D$15:$S$15</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.000000</c:v>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.000000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.000000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.000000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000000</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.000000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.000000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-347B-4319-8A17-3CB3EFA4E9E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1073,36 +1047,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Burndown Chart'!$D$5:$S$5</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -1126,30 +1075,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,34 +1083,40 @@
             <c:numRef>
               <c:f>'Burndown Chart'!$D$16:$S$16</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.000000</c:v>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.857143</c:v>
+                  <c:v>22.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.714286</c:v>
+                  <c:v>18.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.571429</c:v>
+                  <c:v>14.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.428571</c:v>
+                  <c:v>11.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.285714</c:v>
+                  <c:v>7.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.142857</c:v>
+                  <c:v>3.7142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-347B-4319-8A17-3CB3EFA4E9E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1204,36 +1135,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Burndown Chart'!$D$5:$S$5</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -1257,30 +1163,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1289,35 +1171,49 @@
             <c:numRef>
               <c:f>'Burndown Chart'!$D$14:$S$14</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.000000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.000000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.000000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.000000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.000000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.000000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-347B-4319-8A17-3CB3EFA4E9E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="2094734552"/>
@@ -1348,19 +1244,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
@@ -1389,7 +1287,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1397,7 +1295,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1408,7 +1306,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1427,13 +1324,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1457,10 +1355,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.282538"/>
-          <c:y val="0.960188"/>
-          <c:w val="0.465549"/>
-          <c:h val="0.0398115"/>
+          <c:x val="0.28253800000000001"/>
+          <c:y val="0.96018800000000004"/>
+          <c:w val="0.46554899999999999"/>
+          <c:h val="3.98115E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1477,18 +1375,20 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1503,11 +1403,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1521,18 +1426,24 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>42721</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="854158" y="3532909"/>
-        <a:ext cx="9535404" cy="4191408"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1542,7 +1453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1744,7 +1655,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1762,7 +1673,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1791,7 +1702,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1816,7 +1727,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1841,7 +1752,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1866,7 +1777,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1891,7 +1802,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1916,7 +1827,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1941,7 +1852,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1966,7 +1877,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1991,7 +1902,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2004,9 +1915,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2023,7 +1940,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2041,7 +1958,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2066,7 +1983,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2091,7 +2008,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2116,7 +2033,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2141,7 +2058,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2166,7 +2083,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2191,7 +2108,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2216,7 +2133,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2241,7 +2158,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2266,7 +2183,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2279,9 +2196,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2295,7 +2218,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2313,7 +2236,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2342,7 +2265,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2367,7 +2290,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2392,7 +2315,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2417,7 +2340,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2442,7 +2365,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2467,7 +2390,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2492,7 +2415,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2517,7 +2440,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2542,7 +2465,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2555,36 +2478,45 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.17188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="11" width="10.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
+    <col min="5" max="11" width="10.36328125" style="1" customWidth="1"/>
     <col min="12" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9.67188" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85156" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9.6328125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="8.81640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2606,548 +2538,550 @@
       <c r="S1" s="3"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" ht="26.5" customHeight="1">
+    <row r="2" spans="1:20" ht="26.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4"/>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" ht="14.05" customHeight="1">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="12">
+      <c r="B4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="C4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s" s="14">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="7">
         <v>45248</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="7">
         <v>45249</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="7">
         <v>45250</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="7">
         <v>45251</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="7">
         <v>45252</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="7">
         <v>45253</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="7">
         <v>45254</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" t="s" s="19">
+      <c r="B5" s="61"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s" s="19">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s" s="19">
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s" s="19">
+      <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s" s="19">
+      <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s" s="19">
+      <c r="I5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s" s="19">
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="s" s="19">
+      <c r="K5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" ht="14.05" customHeight="1">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
-      <c r="B6" s="22">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="23">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="14">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="25">
+      <c r="C7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="22">
+        <v>8</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s" s="26">
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="27">
+      <c r="I7" s="24">
         <v>1</v>
       </c>
-      <c r="H6" t="s" s="26">
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="27">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="20">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="22">
+        <v>8</v>
+      </c>
+      <c r="E8" s="28">
         <v>1</v>
       </c>
-      <c r="J6" s="27">
+      <c r="F8" s="26"/>
+      <c r="G8" s="24">
         <v>1</v>
       </c>
-      <c r="K6" s="27">
+      <c r="H8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="24">
         <v>1</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="30">
+      <c r="J8" s="24">
+        <v>1</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="20">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="C7" t="s" s="31">
-        <v>15</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="E9" s="29"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24">
+        <v>1</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="20">
+        <v>5</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="20">
+        <v>6</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="20">
+        <v>7</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="32">
+        <v>8</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" ref="E14:K14" si="0">SUM(E6:E13)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="40">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="33">
-        <v>13</v>
-      </c>
-      <c r="F7" s="34">
-        <v>1</v>
-      </c>
-      <c r="G7" s="34">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="35">
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="43">
+        <f>SUM(D6:D14)</f>
+        <v>26</v>
+      </c>
+      <c r="E15" s="44">
+        <f t="shared" ref="E15:K15" si="1">D15-SUM(E6:E13)</f>
+        <v>25</v>
+      </c>
+      <c r="F15" s="45">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="45">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H15" s="45">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I15" s="45">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J15" s="45">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I7" s="34">
-        <v>1</v>
-      </c>
-      <c r="J7" s="34">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s" s="35">
-        <v>14</v>
-      </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="30">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s" s="31">
-        <v>16</v>
-      </c>
-      <c r="D8" s="32">
-        <v>2</v>
-      </c>
-      <c r="E8" s="38">
-        <v>1</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="34">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="35">
-        <v>14</v>
-      </c>
-      <c r="I8" s="34">
-        <v>1</v>
-      </c>
-      <c r="J8" s="34">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s" s="35">
-        <v>14</v>
-      </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="30">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s" s="31">
-        <v>17</v>
-      </c>
-      <c r="D9" s="32">
-        <v>2</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="34">
-        <v>1</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="30">
-        <v>5</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="30">
-        <v>6</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="30">
-        <v>7</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="42">
-        <v>8</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" ht="14.05" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50">
+      <c r="K15" s="45">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="47">
+        <f>D15</f>
+        <v>26</v>
+      </c>
+      <c r="E16" s="48">
+        <f>$D$16-($D$16/7*1)</f>
+        <v>22.285714285714285</v>
+      </c>
+      <c r="F16" s="49">
+        <f>$D$16-($D$16/7*2)</f>
+        <v>18.571428571428569</v>
+      </c>
+      <c r="G16" s="49">
+        <f>$D$16-($D$16/7*3)</f>
+        <v>14.857142857142858</v>
+      </c>
+      <c r="H16" s="49">
+        <f>$D$16-($D$16/7*4)</f>
+        <v>11.142857142857142</v>
+      </c>
+      <c r="I16" s="49">
+        <f>$D$16-($D$16/7*5)</f>
+        <v>7.428571428571427</v>
+      </c>
+      <c r="J16" s="49">
+        <f>$D$16-($D$16/7*6)</f>
+        <v>3.7142857142857153</v>
+      </c>
+      <c r="K16" s="49">
+        <f>$D$16-($D$16/7*7)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="51">
-        <f>SUM(E6:E13)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="52">
-        <f>SUM(F6:F13)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="52">
-        <f>SUM(G6:G13)</f>
-        <v>3</v>
-      </c>
-      <c r="H14" s="52">
-        <f>SUM(H6:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="52">
-        <f>SUM(I6:I13)</f>
-        <v>3</v>
-      </c>
-      <c r="J14" s="52">
-        <f>SUM(J6:J13)</f>
-        <v>3</v>
-      </c>
-      <c r="K14" s="52">
-        <f>SUM(K6:K13)</f>
-        <v>2</v>
-      </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s" s="55">
-        <v>19</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57">
-        <f>SUM(D6:D14)</f>
-        <v>8</v>
-      </c>
-      <c r="E15" s="58">
-        <f>D15-SUM(E6:E13)</f>
-        <v>7</v>
-      </c>
-      <c r="F15" s="59">
-        <f>E15-SUM(F6:F13)</f>
-        <v>6</v>
-      </c>
-      <c r="G15" s="59">
-        <f>F15-SUM(G6:G13)</f>
-        <v>3</v>
-      </c>
-      <c r="H15" s="59">
-        <f>G15-SUM(H6:H13)</f>
-        <v>3</v>
-      </c>
-      <c r="I15" s="59">
-        <f>H15-SUM(I6:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="59">
-        <f>I15-SUM(J6:J13)</f>
-        <v>-3</v>
-      </c>
-      <c r="K15" s="59">
-        <f>J15-SUM(K6:K13)</f>
-        <v>-5</v>
-      </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s" s="61">
-        <v>20</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63">
-        <f>D15</f>
-        <v>8</v>
-      </c>
-      <c r="E16" s="64">
-        <f>$D$16-($D$16/7*1)</f>
-        <v>6.85714285714286</v>
-      </c>
-      <c r="F16" s="65">
-        <f>$D$16-($D$16/7*2)</f>
-        <v>5.71428571428571</v>
-      </c>
-      <c r="G16" s="65">
-        <f>$D$16-($D$16/7*3)</f>
-        <v>4.57142857142857</v>
-      </c>
-      <c r="H16" s="65">
-        <f>$D$16-($D$16/7*4)</f>
-        <v>3.42857142857143</v>
-      </c>
-      <c r="I16" s="65">
-        <f>$D$16-($D$16/7*5)</f>
-        <v>2.28571428571429</v>
-      </c>
-      <c r="J16" s="65">
-        <f>$D$16-($D$16/7*6)</f>
-        <v>1.14285714285714</v>
-      </c>
-      <c r="K16" s="65">
-        <f>$D$16-($D$16/7*7)</f>
-        <v>-1e-33</v>
-      </c>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" ht="14.05" customHeight="1">
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
+    <row r="18" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3169,7 +3103,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
+    <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3191,7 +3125,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
+    <row r="20" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3213,7 +3147,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
+    <row r="21" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3235,7 +3169,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
+    <row r="22" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3257,7 +3191,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
+    <row r="23" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3279,7 +3213,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
+    <row r="24" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3301,7 +3235,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
+    <row r="25" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3323,7 +3257,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
+    <row r="26" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3345,7 +3279,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
+    <row r="27" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3367,7 +3301,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
+    <row r="28" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3389,7 +3323,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
+    <row r="29" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3411,7 +3345,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
+    <row r="30" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3433,7 +3367,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
+    <row r="31" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3455,7 +3389,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
+    <row r="32" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3477,7 +3411,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
+    <row r="33" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3499,7 +3433,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
+    <row r="34" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3521,7 +3455,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
+    <row r="35" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3543,7 +3477,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
+    <row r="36" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3565,7 +3499,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
+    <row r="37" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3587,7 +3521,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
+    <row r="38" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3609,7 +3543,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
+    <row r="39" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3631,7 +3565,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
+    <row r="40" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3653,7 +3587,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
+    <row r="41" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3675,7 +3609,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
+    <row r="42" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3697,7 +3631,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
+    <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3719,7 +3653,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
+    <row r="44" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3741,49 +3675,49 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" s="68"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="69"/>
-      <c r="R45" s="69"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="70"/>
-    </row>
-    <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="73"/>
+    <row r="45" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="54"/>
+    </row>
+    <row r="46" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="55"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3796,7 +3730,7 @@
     <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
